--- a/SourceCode/dams/admin/loading.xlsx
+++ b/SourceCode/dams/admin/loading.xlsx
@@ -140,12 +140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +204,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +234,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +256,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -240,7 +270,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,10 +316,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,13 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -293,67 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="8"/>
       <color theme="1"/>
@@ -370,13 +363,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,109 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,49 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +698,65 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,214 +799,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,13 +1005,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,18 +1020,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1089,8 +1076,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1522,7 +1512,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1554,12 +1544,12 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="50"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="11"/>
-      <c r="P1" s="50"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:16">
       <c r="A2" s="8" t="s">
@@ -1579,7 +1569,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="51"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:16">
       <c r="A3" s="10" t="s">
@@ -1599,7 +1589,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="50"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:16">
       <c r="A4" s="10" t="s">
@@ -1615,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="50"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="12"/>
       <c r="L4" s="14"/>
       <c r="M4" s="10" t="s">
@@ -1687,7 +1677,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:16">
       <c r="A7" s="20"/>
@@ -1701,8 +1691,8 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -1719,8 +1709,8 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="27"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
@@ -1737,8 +1727,8 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
@@ -1761,7 +1751,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="50"/>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:16">
       <c r="A11" s="20"/>
@@ -1775,8 +1765,8 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
@@ -1793,8 +1783,8 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
@@ -1811,8 +1801,8 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="27"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
@@ -1835,7 +1825,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="50"/>
+      <c r="P14" s="48"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:16">
       <c r="A15" s="20"/>
@@ -1849,8 +1839,8 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="27"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
@@ -1867,8 +1857,8 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
@@ -1885,8 +1875,8 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="27"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
@@ -1903,269 +1893,269 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="9" customHeight="1" spans="1:16">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="52"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="39" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="41"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="39"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="49" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="54"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="30" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="38"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="39" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A31" s="42"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="49" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="54"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="49">
